--- a/output/flourish_municipios_capitais.xlsx
+++ b/output/flourish_municipios_capitais.xlsx
@@ -446,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -460,22 +460,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1">
         <v>2004</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2008</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2012</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2016</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -483,22 +486,25 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,22 +512,25 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -529,22 +538,25 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -555,19 +567,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -575,22 +590,25 @@
         <v>22</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -607,13 +625,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,13 +651,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -644,22 +668,25 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -676,13 +703,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -696,16 +726,19 @@
         <v>3</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -719,16 +752,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -736,22 +772,25 @@
         <v>20</v>
       </c>
       <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>5</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -765,16 +804,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -782,22 +824,25 @@
         <v>22</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -805,13 +850,13 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -819,8 +864,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -834,16 +882,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -854,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -865,8 +916,11 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -883,9 +937,12 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>

--- a/output/flourish_municipios_capitais.xlsx
+++ b/output/flourish_municipios_capitais.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>ideologia</t>
   </si>
@@ -76,19 +76,13 @@
     <t>REDE</t>
   </si>
   <si>
-    <t>Centro Dem</t>
+    <t>Centro</t>
   </si>
   <si>
     <t>Direita</t>
   </si>
   <si>
     <t>Esquerda</t>
-  </si>
-  <si>
-    <t>Extinto</t>
-  </si>
-  <si>
-    <t>Centrao</t>
   </si>
 </sst>
 </file>
@@ -613,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -639,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -665,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -691,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -847,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>0</v>
